--- a/data/trans_camb/P18_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P18_2_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-16,7</t>
+          <t>-24,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-12,28</t>
+          <t>-23,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-14,45</t>
+          <t>-22,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-17,37</t>
+          <t>-24,45</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-16,1</t>
+          <t>-12,21</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-16,13</t>
+          <t>-15,01</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-17,14</t>
+          <t>-20,6</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-14,33</t>
+          <t>-16,49</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-15,29</t>
+          <t>-18,01</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-19,06</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-21,51</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-20,14</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-36,04; -6,78</t>
+          <t>-59,0; -5,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-31,5; -1,05</t>
+          <t>-61,12; -4,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-34,41; -4,58</t>
+          <t>-57,62; -4,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,36; -7,88</t>
+          <t>-57,88; -5,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,29; -6,99</t>
+          <t>-27,76; 3,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-27,32; -6,68</t>
+          <t>-30,81; 1,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-27,15; -11,03</t>
+          <t>-34,93; -6,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-24,52; -6,93</t>
+          <t>-31,41; 0,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-24,67; -8,72</t>
+          <t>-37,23; -6,24</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-37,06; -6,78</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-41,23; -10,73</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-39,4; -8,25</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-91,75%</t>
+          <t>-88,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-67,45%</t>
+          <t>-85,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-79,43%</t>
+          <t>-81,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-70,21%</t>
+          <t>-88,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-65,09%</t>
+          <t>-44,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-65,21%</t>
+          <t>-54,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-78,66%</t>
+          <t>-75,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-65,75%</t>
+          <t>-60,07%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-70,17%</t>
+          <t>-65,52%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-69,32%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-78,23%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-73,24%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -60,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-97,31; 16,88</t>
+          <t>-100,0; -25,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-98,1; -39,12</t>
+          <t>-100,0; -18,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-86,52; -38,04</t>
+          <t>-100,0; -43,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-83,7; -32,41</t>
+          <t>-76,63; 31,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-85,85; -33,75</t>
+          <t>-83,35; 14,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-90,08; -60,58</t>
+          <t>-93,11; -23,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-83,24; -35,9</t>
+          <t>-86,97; 19,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-83,85; -47,78</t>
+          <t>-87,74; -26,57</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-90,04; -29,9</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-93,07; -50,99</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-93,69; -34,68</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,49</t>
+          <t>-5,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,2</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,16</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-3,85</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-4,94</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,65</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-4,37</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>-7,62</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,91</t>
+          <t>-5,38</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-2,51</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-3,4</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-5,7</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,93; -0,89</t>
+          <t>-11,11; -1,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,8; -0,54</t>
+          <t>-8,41; 2,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,8; -0,35</t>
+          <t>-7,78; 3,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 1,78</t>
+          <t>-8,99; 2,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 2,03</t>
+          <t>-9,86; -0,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 1,21</t>
+          <t>-7,06; 3,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,42; -0,47</t>
+          <t>-9,61; 0,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,69; -0,27</t>
+          <t>-12,29; -3,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,8; -0,83</t>
+          <t>-8,73; -2,12</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-6,54; 1,25</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-7,16; 0,64</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-9,09; -2,05</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-57,32%</t>
+          <t>-73,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-53,65%</t>
+          <t>-36,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-53,08%</t>
+          <t>-30,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-32,46%</t>
+          <t>-48,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-24,86%</t>
+          <t>-57,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-46,43%</t>
+          <t>-24,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-44,42%</t>
+          <t>-50,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-39,25%</t>
+          <t>-88,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-49,89%</t>
+          <t>-65,04%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-30,27%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-41,05%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-68,94%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-83,9; -5,0</t>
+          <t>-100,0; -14,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-78,96; -1,47</t>
+          <t>-75,54; 66,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-78,61; -3,06</t>
+          <t>-71,16; 78,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-65,54; 34,8</t>
+          <t>-85,26; 56,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,21; 42,15</t>
+          <t>-83,22; 4,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-76,83; 35,75</t>
+          <t>-65,0; 62,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-68,61; -4,72</t>
+          <t>-80,43; 15,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-61,39; -2,37</t>
+          <t>-100,0; -49,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-72,38; -8,34</t>
+          <t>-82,47; -26,83</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-59,32; 26,94</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-68,36; 15,58</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-87,47; -27,98</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,54</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,02</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,9</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,68</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-4,73</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>-3,47</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,38</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,89</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,57; -1,31</t>
+          <t>-8,99; -0,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 2,3</t>
+          <t>-5,52; 6,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 0,38</t>
+          <t>-7,44; 2,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,32; -1,91</t>
+          <t>-7,89; 2,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 2,41</t>
+          <t>-6,45; -0,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,16; -0,65</t>
+          <t>-4,32; 3,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,25; -2,73</t>
+          <t>-6,01; 1,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 1,17</t>
+          <t>-5,06; 2,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,08; -1,06</t>
+          <t>-6,04; -0,91</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-3,14; 3,08</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,19; 0,58</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,75; 1,34</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-73,69%</t>
+          <t>-74,77%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-32,75%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-51,48%</t>
+          <t>-41,19%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-82,2%</t>
+          <t>-53,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-22,32%</t>
+          <t>-74,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-61,78%</t>
+          <t>-4,6%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-78,21%</t>
+          <t>-61,52%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-27,18%</t>
+          <t>-28,12%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-56,78%</t>
+          <t>-74,64%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-1,76%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-51,2%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-40,68%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-94,26; -19,97</t>
+          <t>-100,0; 65,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-76,61; 68,06</t>
+          <t>-71,55; 253,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-82,76; 22,02</t>
+          <t>-86,98; 119,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-96,0; -38,84</t>
+          <t>-93,7; 116,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-63,15; 60,81</t>
+          <t>-100,0; 50,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-85,65; 4,72</t>
+          <t>-68,68; 171,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-91,77; -49,32</t>
+          <t>-92,45; 113,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-60,2; 24,37</t>
+          <t>-84,32; 136,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-79,1; -16,87</t>
+          <t>-94,19; -12,51</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-51,3; 111,04</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-80,77; 38,11</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-76,92; 49,82</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,5</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,8</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,68</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-6,21</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-4,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,6</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,92; -3,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,39; -1,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,97; -2,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,12; -3,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,22; -1,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,96; -3,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,3; -4,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,87; -2,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,98; -3,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-72,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-53,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-61,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-58,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-41,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-56,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-64,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-46,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-58,5%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-85,28; -48,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-75,33; -22,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-78,63; -32,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-74,58; -33,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-60,03; -13,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-73,19; -32,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-75,79; -48,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-62,7; -29,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-70,85; -38,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-7,56</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-4,57</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-4,94</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-6,16</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-5,07</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-2,91</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-5,66</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-5,59</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-6,23</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-3,69</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-5,31</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-5,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-16,0; -3,82</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-13,19; -0,27</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-13,57; -0,93</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-14,22; -2,17</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-8,52; -1,73</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-6,44; 0,85</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-9,05; -2,36</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-9,06; -1,9</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-9,53; -3,75</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-7,4; -0,98</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-8,62; -2,66</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-9,13; -3,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-79,53%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-48,04%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-52,02%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-64,8%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-54,91%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-31,52%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-61,31%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-60,51%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-66,49%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-39,4%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-56,68%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-62,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-93,77; -52,78</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-78,92; 0,26</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-80,83; -9,01</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-86,86; -27,21</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-73,88; -20,97</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-57,16; 12,33</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-79,79; -31,27</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-81,42; -22,76</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-80,65; -46,09</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-61,08; -11,44</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-73,55; -29,14</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-78,33; -38,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
